--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.24935446881376</v>
+        <v>91.74763539516202</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58955079011846</v>
+        <v>7.628292170307143</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.65867025493981</v>
+        <v>93.71310571035961</v>
       </c>
       <c r="D3" t="n">
-        <v>8.443191916801506</v>
+        <v>8.374104222411713</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.03387009215773</v>
+        <v>91.57687980306498</v>
       </c>
       <c r="D4" t="n">
-        <v>8.259621733952059</v>
+        <v>8.163351700362753</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.3882865675406</v>
+        <v>92.34522326115564</v>
       </c>
       <c r="D5" t="n">
-        <v>8.456324631145518</v>
+        <v>8.559974103733079</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.25253754020773</v>
+        <v>90.07296820085914</v>
       </c>
       <c r="D6" t="n">
-        <v>7.658260906619105</v>
+        <v>8.027041699750008</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.79190088682707</v>
+        <v>87.35837778200028</v>
       </c>
       <c r="D7" t="n">
-        <v>8.383804663378962</v>
+        <v>8.745550689483412</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.71279986884294</v>
+        <v>86.56714228927318</v>
       </c>
       <c r="D8" t="n">
-        <v>9.143054846355588</v>
+        <v>7.301599349585224</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.84868603041755</v>
+        <v>85.75363679035001</v>
       </c>
       <c r="D9" t="n">
-        <v>9.513544840184302</v>
+        <v>8.294825447055224</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.31090961748059</v>
+        <v>83.55773113814296</v>
       </c>
       <c r="D10" t="n">
-        <v>10.1741731260989</v>
+        <v>7.521322036490939</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.47655416566397</v>
+        <v>82.43756632310777</v>
       </c>
       <c r="D11" t="n">
-        <v>8.97169433712684</v>
+        <v>7.267653972987011</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.46687732738732</v>
+        <v>83.66200418563564</v>
       </c>
       <c r="D12" t="n">
-        <v>9.000877089706455</v>
+        <v>6.975760172021641</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.96600130789102</v>
+        <v>82.49397549952877</v>
       </c>
       <c r="D13" t="n">
-        <v>7.332962718055907</v>
+        <v>7.529858283962718</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.13610240021981</v>
+        <v>79.47250791375228</v>
       </c>
       <c r="D14" t="n">
-        <v>8.700512112858913</v>
+        <v>8.584991385961985</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.52027446755601</v>
+        <v>79.34642970256732</v>
       </c>
       <c r="D15" t="n">
-        <v>8.605006889615776</v>
+        <v>7.705018921825121</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.90436921924319</v>
+        <v>77.21897807725786</v>
       </c>
       <c r="D16" t="n">
-        <v>8.112731114059363</v>
+        <v>8.72014993526439</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.18339908156454</v>
+        <v>77.21994342487551</v>
       </c>
       <c r="D17" t="n">
-        <v>9.384538151943188</v>
+        <v>8.020503232085927</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.75814074883941</v>
+        <v>74.64841687114176</v>
       </c>
       <c r="D18" t="n">
-        <v>8.778094562275884</v>
+        <v>7.458683762779511</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.26748520441265</v>
+        <v>73.56383540592171</v>
       </c>
       <c r="D19" t="n">
-        <v>8.038443733067322</v>
+        <v>8.480570385636124</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.36750909444552</v>
+        <v>73.17741181788902</v>
       </c>
       <c r="D20" t="n">
-        <v>8.699384564250977</v>
+        <v>9.050355625138893</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.69136982896389</v>
+        <v>71.77799351246887</v>
       </c>
       <c r="D21" t="n">
-        <v>7.772360467372581</v>
+        <v>7.816943655930054</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.13504853671472</v>
+        <v>71.5130527690429</v>
       </c>
       <c r="D22" t="n">
-        <v>8.930168455083784</v>
+        <v>8.952969900101508</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.70489482193832</v>
+        <v>70.40762887691679</v>
       </c>
       <c r="D23" t="n">
-        <v>7.648630208213428</v>
+        <v>8.356795117538892</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.38652456319564</v>
+        <v>68.93063618861105</v>
       </c>
       <c r="D24" t="n">
-        <v>9.1276556180048</v>
+        <v>8.553391717914625</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.31295031030753</v>
+        <v>67.62650649910051</v>
       </c>
       <c r="D25" t="n">
-        <v>7.834088994661862</v>
+        <v>8.473846277832219</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.88561381630609</v>
+        <v>68.6589735330721</v>
       </c>
       <c r="D26" t="n">
-        <v>8.150484046763358</v>
+        <v>8.325136498510506</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.60494198956751</v>
+        <v>66.54309013458679</v>
       </c>
       <c r="D27" t="n">
-        <v>8.254582603175391</v>
+        <v>8.078027000175826</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.96407592550376</v>
+        <v>65.20349128000608</v>
       </c>
       <c r="D28" t="n">
-        <v>7.833402174694083</v>
+        <v>7.403552362934566</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.74597092906755</v>
+        <v>64.56393654082707</v>
       </c>
       <c r="D29" t="n">
-        <v>8.470968650567125</v>
+        <v>8.34413807402778</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.59539193489718</v>
+        <v>63.52951678603313</v>
       </c>
       <c r="D30" t="n">
-        <v>7.489451950971063</v>
+        <v>8.318216102904927</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.37518837878779</v>
+        <v>62.98220700007153</v>
       </c>
       <c r="D31" t="n">
-        <v>7.862362945280617</v>
+        <v>7.588755346406323</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.75452828354955</v>
+        <v>61.28448645623953</v>
       </c>
       <c r="D32" t="n">
-        <v>7.639911183503153</v>
+        <v>6.943980880352983</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.88884676374462</v>
+        <v>59.3054549182347</v>
       </c>
       <c r="D33" t="n">
-        <v>8.230888123468954</v>
+        <v>7.860312618154463</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.69761877007123</v>
+        <v>58.36308762980754</v>
       </c>
       <c r="D34" t="n">
-        <v>7.977395944608454</v>
+        <v>7.668808562022437</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.88409128521378</v>
+        <v>57.18233817913957</v>
       </c>
       <c r="D35" t="n">
-        <v>8.905658191357553</v>
+        <v>8.643999679890625</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.30604056144774</v>
+        <v>58.51897007054452</v>
       </c>
       <c r="D36" t="n">
-        <v>7.920907366787628</v>
+        <v>8.632891091670311</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.13772014995515</v>
+        <v>54.63882132325772</v>
       </c>
       <c r="D37" t="n">
-        <v>8.997902803287481</v>
+        <v>7.287397463833618</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.66425002601804</v>
+        <v>54.28735846142665</v>
       </c>
       <c r="D38" t="n">
-        <v>8.170880563034196</v>
+        <v>7.174358759503273</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.93643711692746</v>
+        <v>55.09406848274794</v>
       </c>
       <c r="D39" t="n">
-        <v>7.838634923964982</v>
+        <v>7.86745637963983</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.68183517892285</v>
+        <v>52.92069071714107</v>
       </c>
       <c r="D40" t="n">
-        <v>8.732044817827067</v>
+        <v>8.208853807535892</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.84925298380816</v>
+        <v>52.37128577740867</v>
       </c>
       <c r="D41" t="n">
-        <v>8.871276844348955</v>
+        <v>7.695724513087582</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.40232934020159</v>
+        <v>51.36627335066684</v>
       </c>
       <c r="D42" t="n">
-        <v>8.249427458251919</v>
+        <v>7.800027348937843</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99925380091311</v>
+        <v>48.437068033</v>
       </c>
       <c r="D43" t="n">
-        <v>8.020701395209382</v>
+        <v>8.305053406081221</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.33954476741945</v>
+        <v>46.20404939080164</v>
       </c>
       <c r="D44" t="n">
-        <v>8.832414932696546</v>
+        <v>7.653732898822311</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.78370551659783</v>
+        <v>49.00031525611388</v>
       </c>
       <c r="D45" t="n">
-        <v>6.666037426247486</v>
+        <v>8.151299123169643</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.54229991615014</v>
+        <v>46.54387911700538</v>
       </c>
       <c r="D46" t="n">
-        <v>8.934173411822094</v>
+        <v>6.970848444305531</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.66380935480544</v>
+        <v>45.38618202197141</v>
       </c>
       <c r="D47" t="n">
-        <v>8.175736441551004</v>
+        <v>7.359934591901475</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.33479747030086</v>
+        <v>42.86614969774185</v>
       </c>
       <c r="D48" t="n">
-        <v>8.63249097459733</v>
+        <v>8.17757802258552</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.73748279983187</v>
+        <v>43.9974165458436</v>
       </c>
       <c r="D49" t="n">
-        <v>7.879624711969503</v>
+        <v>7.689250253571909</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.98100489102271</v>
+        <v>42.88388704136167</v>
       </c>
       <c r="D50" t="n">
-        <v>9.735449687202303</v>
+        <v>8.416930548601311</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.95595545335147</v>
+        <v>41.79794147231685</v>
       </c>
       <c r="D51" t="n">
-        <v>7.483914994538273</v>
+        <v>6.923607419957583</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.529536518305</v>
+        <v>41.37801876364851</v>
       </c>
       <c r="D52" t="n">
-        <v>7.937333404570077</v>
+        <v>7.145534794759867</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.21274090104905</v>
+        <v>40.29459489999523</v>
       </c>
       <c r="D53" t="n">
-        <v>7.891983613114707</v>
+        <v>7.014028254997072</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.13285701005156</v>
+        <v>37.91459025162219</v>
       </c>
       <c r="D54" t="n">
-        <v>8.023111044391065</v>
+        <v>8.194521288682928</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.3559963320176</v>
+        <v>36.67785054734756</v>
       </c>
       <c r="D55" t="n">
-        <v>8.19059159691944</v>
+        <v>7.846467146793731</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.50388428770488</v>
+        <v>36.00537362552299</v>
       </c>
       <c r="D56" t="n">
-        <v>8.147287632435951</v>
+        <v>7.330209757256538</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08520319041403</v>
+        <v>34.01296160002416</v>
       </c>
       <c r="D57" t="n">
-        <v>7.419472876891233</v>
+        <v>7.336280090197682</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.22184814116451</v>
+        <v>35.593639505002</v>
       </c>
       <c r="D58" t="n">
-        <v>8.025486528262419</v>
+        <v>7.185157890429988</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.82104164236775</v>
+        <v>33.84462626625586</v>
       </c>
       <c r="D59" t="n">
-        <v>8.675623096214881</v>
+        <v>8.050654261222164</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.60484470081764</v>
+        <v>31.13320929550547</v>
       </c>
       <c r="D60" t="n">
-        <v>8.003730071453734</v>
+        <v>7.819670076021914</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00790460437416</v>
+        <v>31.24672236126132</v>
       </c>
       <c r="D61" t="n">
-        <v>8.335153028365152</v>
+        <v>9.135015387976999</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.15605788887238</v>
+        <v>31.22129827740687</v>
       </c>
       <c r="D62" t="n">
-        <v>9.249310615800869</v>
+        <v>7.977556276906907</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.34594757352681</v>
+        <v>29.6895449203106</v>
       </c>
       <c r="D63" t="n">
-        <v>7.290277059590824</v>
+        <v>7.747994898747796</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.44034797193494</v>
+        <v>29.42400298138313</v>
       </c>
       <c r="D64" t="n">
-        <v>8.566580337948063</v>
+        <v>8.119564505819334</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.94173668899634</v>
+        <v>27.35232777870791</v>
       </c>
       <c r="D65" t="n">
-        <v>7.660196807245319</v>
+        <v>8.425755305971466</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.0833224469371</v>
+        <v>26.03873506264893</v>
       </c>
       <c r="D66" t="n">
-        <v>7.530138928417255</v>
+        <v>8.021605441303871</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.33662312948035</v>
+        <v>25.07579704506317</v>
       </c>
       <c r="D67" t="n">
-        <v>7.317546179607664</v>
+        <v>6.932671783318378</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.53186345544694</v>
+        <v>24.03782301352053</v>
       </c>
       <c r="D68" t="n">
-        <v>7.490131820794265</v>
+        <v>8.363050111762954</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.24243043738397</v>
+        <v>22.96997239406648</v>
       </c>
       <c r="D69" t="n">
-        <v>8.322184744465979</v>
+        <v>7.063294826917693</v>
       </c>
     </row>
   </sheetData>
